--- a/全校班级课表.xlsx
+++ b/全校班级课表.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse-workspace\JavaLecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2667F187-729B-4F02-B7C5-A9E06ECFDF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAC12A15-5A7B-4167-A2A2-E4537AD554B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28690" yWindow="-110" windowWidth="29020" windowHeight="15970"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560"/>
   </bookViews>
   <sheets>
     <sheet name="{worksheet}" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="312">
   <si>
     <t>班级</t>
   </si>
@@ -49,7 +49,7 @@
     <t>晚上</t>
   </si>
   <si>
-    <t>21五年制幼教1班</t>
+    <t>2021级五年制幼教1班</t>
   </si>
   <si>
     <t>英语（五年制）6
@@ -102,7 +102,7 @@
 映荷楼104</t>
   </si>
   <si>
-    <t>21五年制幼教2班</t>
+    <t>2021级五年制幼教2班</t>
   </si>
   <si>
     <t>幼儿保健与护理
@@ -120,7 +120,7 @@
 映荷楼203</t>
   </si>
   <si>
-    <t>21五年制电商1班</t>
+    <t>2021级五年制电商1班</t>
   </si>
   <si>
     <t>国际贸易实务
@@ -188,7 +188,7 @@
 践行楼101</t>
   </si>
   <si>
-    <t>21五年制电商2班</t>
+    <t>2021级五年制电商2班</t>
   </si>
   <si>
     <t>国际贸易实务
@@ -206,7 +206,7 @@
 践行楼104</t>
   </si>
   <si>
-    <t>21五年制会计</t>
+    <t>2021级五年制会计</t>
   </si>
   <si>
     <t>成本会计（五年）2
@@ -234,7 +234,7 @@
 映荷楼204</t>
   </si>
   <si>
-    <t>21五年制工造</t>
+    <t>2021级五年制工造</t>
   </si>
   <si>
     <t>管理学原理
@@ -272,7 +272,7 @@
 践行楼403</t>
   </si>
   <si>
-    <t>21五年制建工</t>
+    <t>2021级五年制建工</t>
   </si>
   <si>
     <t>建筑工程测量
@@ -300,7 +300,7 @@
 践行楼401</t>
   </si>
   <si>
-    <t>21五年制室内设计</t>
+    <t>2021级五年制室内设计</t>
   </si>
   <si>
     <t>室内装饰工程概预算
@@ -333,7 +333,7 @@
 映荷楼301</t>
   </si>
   <si>
-    <t>21五年制计应1班</t>
+    <t>2021级五年制计应1班</t>
   </si>
   <si>
     <t>数学（五年制）6
@@ -346,11 +346,6 @@
 践404机房</t>
   </si>
   <si>
-    <t>英语（五年制）6
-李玉洁
-映荷楼103</t>
-  </si>
-  <si>
     <t>界面设计进阶（Illustrator）
 张宗明
 践404机房</t>
@@ -361,11 +356,6 @@
 践301机房</t>
   </si>
   <si>
-    <t>英语（五年制）6
-李玉洁
-映荷楼402</t>
-  </si>
-  <si>
     <t>数学（五年制）6
 周家忠
 践行楼103</t>
@@ -381,7 +371,7 @@
 映荷楼103</t>
   </si>
   <si>
-    <t>21五年制计应2班</t>
+    <t>2021级五年制计应2班</t>
   </si>
   <si>
     <t>多媒体技术
@@ -404,7 +394,7 @@
 映荷楼301</t>
   </si>
   <si>
-    <t>21五年制计网</t>
+    <t>2021级五年制计网</t>
   </si>
   <si>
     <t>计算机及办公设备的维修与使用
@@ -422,7 +412,7 @@
 践402机房</t>
   </si>
   <si>
-    <t>21五年制机电1班</t>
+    <t>2021级五年制机电1班</t>
   </si>
   <si>
     <t>C语言程序设计
@@ -442,11 +432,6 @@
   <si>
     <t>工业机器人技术基础
 胡智勇
-践行楼103</t>
-  </si>
-  <si>
-    <t>工业机器人技术基础
-胡智勇
 践行楼102</t>
   </si>
   <si>
@@ -455,10 +440,10 @@
 践404机房</t>
   </si>
   <si>
-    <t>21五年制机电2班</t>
-  </si>
-  <si>
-    <t>21工业机器人五年制班</t>
+    <t>2021级五年制机电2班</t>
+  </si>
+  <si>
+    <t>2021级五年制工业机器人班</t>
   </si>
   <si>
     <t>C语言程序设计
@@ -481,7 +466,7 @@
 践302机房</t>
   </si>
   <si>
-    <t>22五年制电子商务</t>
+    <t>2022级五年制电子商务</t>
   </si>
   <si>
     <t xml:space="preserve">体育（五年制）4
@@ -516,7 +501,7 @@
   <si>
     <t>政治（五年制）4
 潘威全
-践行楼102</t>
+践行楼103</t>
   </si>
   <si>
     <t>商务谈判与沟通技巧
@@ -526,7 +511,7 @@
   <si>
     <t>英语（五年制）4
 刘敏
-映荷楼304</t>
+映荷楼402</t>
   </si>
   <si>
     <t>商务谈判与沟通技巧
@@ -534,7 +519,12 @@
 映荷楼403</t>
   </si>
   <si>
-    <t>22五年制计网</t>
+    <t>英语（五年制）4
+刘敏
+践行楼202</t>
+  </si>
+  <si>
+    <t>2022级五年制计网</t>
   </si>
   <si>
     <t>数学（五年制）4
@@ -557,7 +547,7 @@
 映荷楼403</t>
   </si>
   <si>
-    <t>23学前教育1</t>
+    <t>2023级学前教育1</t>
   </si>
   <si>
     <t>信息技术
@@ -630,7 +620,7 @@
 映405舞蹈室</t>
   </si>
   <si>
-    <t>23学前教育2</t>
+    <t>2023级学前教育2</t>
   </si>
   <si>
     <t>大学英语2
@@ -663,7 +653,7 @@
 </t>
   </si>
   <si>
-    <t>23学前教育3</t>
+    <t>2023级学前教育3</t>
   </si>
   <si>
     <t>信息技术
@@ -676,6 +666,11 @@
 映荷楼104</t>
   </si>
   <si>
+    <t>幼儿美术2
+唐堃
+映荷楼204</t>
+  </si>
+  <si>
     <t>信息技术
 汤烨鑫
 映荷楼305</t>
@@ -686,7 +681,7 @@
 践行楼103</t>
   </si>
   <si>
-    <t>23学前教育4</t>
+    <t>2023级学前教育4</t>
   </si>
   <si>
     <t>信息技术
@@ -719,7 +714,7 @@
 映荷楼104</t>
   </si>
   <si>
-    <t>23学前教育5</t>
+    <t>2023级学前教育5</t>
   </si>
   <si>
     <t>学前儿童发展心理学
@@ -747,7 +742,7 @@
 映报告厅</t>
   </si>
   <si>
-    <t>23学前教育6</t>
+    <t>2023级学前教育6</t>
   </si>
   <si>
     <t>儿童文学
@@ -785,7 +780,7 @@
 映荷楼303</t>
   </si>
   <si>
-    <t>23学前教育7</t>
+    <t>2023级学前教育7</t>
   </si>
   <si>
     <t>幼儿美术2
@@ -818,7 +813,7 @@
 映荷楼201</t>
   </si>
   <si>
-    <t>23五年制会计</t>
+    <t>2023级五年制会计</t>
   </si>
   <si>
     <t>英语（五年制）2
@@ -876,17 +871,12 @@
 </t>
   </si>
   <si>
-    <t>23建筑工程技术1</t>
+    <t>2023级建筑工程技术1</t>
   </si>
   <si>
     <t>建筑材料
-刘江
-映荷楼203</t>
-  </si>
-  <si>
-    <t>建筑材料
-刘江
-映荷楼303</t>
+张涛
+映荷楼201</t>
   </si>
   <si>
     <t>毛泽东思想和中国特色社会主义理论体系概论
@@ -901,7 +891,7 @@
   <si>
     <t>高等数学2
 游思明
-映荷楼402</t>
+践行楼102</t>
   </si>
   <si>
     <t>建筑构造
@@ -939,7 +929,12 @@
 践行楼201</t>
   </si>
   <si>
-    <t>23建筑工程技术2</t>
+    <t>高等数学2
+游思明
+践行楼203</t>
+  </si>
+  <si>
+    <t>2023级建筑工程技术2</t>
   </si>
   <si>
     <t>大学英语2
@@ -972,7 +967,7 @@
 践行楼104</t>
   </si>
   <si>
-    <t>23建筑工程技术3</t>
+    <t>2023级建筑工程技术3</t>
   </si>
   <si>
     <t>建筑材料
@@ -1005,7 +1000,7 @@
 映荷楼304</t>
   </si>
   <si>
-    <t>23工程测量技术</t>
+    <t>2023级工程测量技术</t>
   </si>
   <si>
     <t>信息技术
@@ -1028,6 +1023,11 @@
 映荷楼402</t>
   </si>
   <si>
+    <t>大学英语2
+肖卷
+践行楼103</t>
+  </si>
+  <si>
     <t>形势与政策2
 潘威全
 践行楼102</t>
@@ -1058,7 +1058,7 @@
 映荷楼302</t>
   </si>
   <si>
-    <t>23工程造价1</t>
+    <t>2023级工程造价1</t>
   </si>
   <si>
     <t>高等数学2
@@ -1096,7 +1096,35 @@
 践行楼102</t>
   </si>
   <si>
-    <t>23工程造价2</t>
+    <t>2023级工程造价2</t>
+  </si>
+  <si>
+    <t>建筑构造
+张涛
+映荷楼103</t>
+  </si>
+  <si>
+    <t>信息技术
+袁军萍
+映荷楼103</t>
+  </si>
+  <si>
+    <t>信息技术
+袁军萍
+践302机房</t>
+  </si>
+  <si>
+    <t>建筑构造
+张涛
+映荷楼404</t>
+  </si>
+  <si>
+    <t>建筑力学与结构基础
+唐勇明
+映荷楼104</t>
+  </si>
+  <si>
+    <t>2023级工程造价3</t>
   </si>
   <si>
     <t>建筑构造
@@ -1104,29 +1132,6 @@
 映荷楼302</t>
   </si>
   <si>
-    <t>信息技术
-袁军萍
-映荷楼103</t>
-  </si>
-  <si>
-    <t>信息技术
-袁军萍
-践302机房</t>
-  </si>
-  <si>
-    <t>建筑构造
-张涛
-映荷楼404</t>
-  </si>
-  <si>
-    <t>建筑力学与结构基础
-唐勇明
-映荷楼104</t>
-  </si>
-  <si>
-    <t>23工程造价3</t>
-  </si>
-  <si>
     <t>建筑力学与结构基础
 唐勇明
 映荷楼302</t>
@@ -1157,7 +1162,7 @@
 映荷楼104</t>
   </si>
   <si>
-    <t>23建设工程管理</t>
+    <t>2023级建设工程管理</t>
   </si>
   <si>
     <t>管理学原理
@@ -1205,7 +1210,7 @@
 映荷楼404</t>
   </si>
   <si>
-    <t>23建筑室内设计1</t>
+    <t>2023级建筑室内设计1</t>
   </si>
   <si>
     <t>室内设计CAD
@@ -1213,16 +1218,16 @@
 践404机房</t>
   </si>
   <si>
-    <t>室内设计CAD
-王诗怡
-映荷楼201</t>
-  </si>
-  <si>
     <t xml:space="preserve">大学体育2
 宋剑文
 </t>
   </si>
   <si>
+    <t>室内设计CAD
+王诗怡
+践行楼201</t>
+  </si>
+  <si>
     <t>Photoshop
 施婧
 践302机房</t>
@@ -1263,7 +1268,7 @@
 映荷楼404</t>
   </si>
   <si>
-    <t>23建筑室内设计2</t>
+    <t>2023级建筑室内设计2</t>
   </si>
   <si>
     <t>Photoshop
@@ -1316,7 +1321,7 @@
 映荷楼204</t>
   </si>
   <si>
-    <t>23建筑室内设计3</t>
+    <t>2023级建筑室内设计3</t>
   </si>
   <si>
     <t xml:space="preserve">大学体育2
@@ -1364,12 +1369,12 @@
 映荷楼101</t>
   </si>
   <si>
-    <t>23建筑室内设计4</t>
+    <t>2023级建筑室内设计4</t>
   </si>
   <si>
     <t>Photoshop
 施婧
-践301机房</t>
+践402机房</t>
   </si>
   <si>
     <t>室内设计CAD
@@ -1407,7 +1412,7 @@
 映荷楼403</t>
   </si>
   <si>
-    <t>23建筑室内设计5</t>
+    <t>2023级建筑室内设计5</t>
   </si>
   <si>
     <t>毛泽东思想和中国特色社会主义理论体系概论
@@ -1435,11 +1440,6 @@
 映荷楼301</t>
   </si>
   <si>
-    <t>信息技术
-张涛
-映荷楼301</t>
-  </si>
-  <si>
     <t>室内设计CAD
 王诗怡
 映荷楼202</t>
@@ -1460,7 +1460,7 @@
 映荷楼203</t>
   </si>
   <si>
-    <t>23建筑室内设计6</t>
+    <t>2023级建筑室内设计6</t>
   </si>
   <si>
     <t>信息技术
@@ -1483,12 +1483,7 @@
 践行楼103</t>
   </si>
   <si>
-    <t>信息技术
-张涛
-映荷楼103</t>
-  </si>
-  <si>
-    <t>23五年制计应</t>
+    <t>2023级五年制计应</t>
   </si>
 </sst>
 </file>
@@ -3267,8 +3262,10 @@
         <v>59</v>
       </c>
       <c r="G10" s="5"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="H10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="5"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="5" t="s">
@@ -3279,10 +3276,8 @@
         <v>60</v>
       </c>
       <c r="O10" s="5"/>
-      <c r="P10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q10" s="5"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -3432,21 +3427,21 @@
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="O12" s="5"/>
       <c r="P12" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q12" s="5"/>
       <c r="R12" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S12" s="5"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W12" s="5"/>
       <c r="X12" s="5" t="s">
@@ -3460,15 +3455,15 @@
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="5" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="AG12" s="5"/>
       <c r="AH12" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AI12" s="5"/>
       <c r="AJ12" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AK12" s="5"/>
       <c r="AL12" s="1"/>
@@ -3476,7 +3471,7 @@
       <c r="AN12" s="1"/>
       <c r="AO12" s="1"/>
       <c r="AP12" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AQ12" s="5"/>
       <c r="AR12" s="1"/>
@@ -3490,7 +3485,7 @@
     </row>
     <row r="13" spans="1:51" ht="130" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>70</v>
@@ -3499,7 +3494,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="1"/>
@@ -3507,19 +3502,19 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="O13" s="5"/>
       <c r="P13" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="5"/>
       <c r="R13" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S13" s="5"/>
       <c r="T13" s="1"/>
@@ -3529,7 +3524,7 @@
       </c>
       <c r="W13" s="5"/>
       <c r="X13" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y13" s="5"/>
       <c r="Z13" s="1"/>
@@ -3539,11 +3534,11 @@
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="5" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="AG13" s="5"/>
       <c r="AH13" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AI13" s="5"/>
       <c r="AJ13" s="1"/>
@@ -3553,7 +3548,7 @@
       <c r="AN13" s="1"/>
       <c r="AO13" s="1"/>
       <c r="AP13" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AQ13" s="5"/>
       <c r="AR13" s="1"/>
@@ -3567,7 +3562,7 @@
     </row>
     <row r="14" spans="1:51" ht="143" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -3584,11 +3579,11 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O14" s="5"/>
       <c r="P14" s="5" t="s">
@@ -3604,11 +3599,11 @@
       </c>
       <c r="W14" s="5"/>
       <c r="X14" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Y14" s="5"/>
       <c r="Z14" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AA14" s="5"/>
       <c r="AB14" s="1"/>
@@ -3616,15 +3611,15 @@
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AG14" s="5"/>
       <c r="AH14" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AI14" s="5"/>
       <c r="AJ14" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AK14" s="5"/>
       <c r="AL14" s="1"/>
@@ -3646,18 +3641,18 @@
     </row>
     <row r="15" spans="1:51" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="1"/>
@@ -3679,11 +3674,11 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="W15" s="5"/>
       <c r="X15" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Y15" s="5"/>
       <c r="Z15" s="1"/>
@@ -3697,7 +3692,7 @@
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
       <c r="AJ15" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AK15" s="5"/>
       <c r="AL15" s="1"/>
@@ -3705,7 +3700,7 @@
       <c r="AN15" s="1"/>
       <c r="AO15" s="1"/>
       <c r="AP15" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AQ15" s="5"/>
       <c r="AR15" s="5" t="s">
@@ -3721,18 +3716,18 @@
     </row>
     <row r="16" spans="1:51" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="1"/>
@@ -3754,11 +3749,11 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="W16" s="5"/>
       <c r="X16" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Y16" s="5"/>
       <c r="Z16" s="1"/>
@@ -3772,7 +3767,7 @@
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
       <c r="AJ16" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AK16" s="5"/>
       <c r="AL16" s="1"/>
@@ -3780,7 +3775,7 @@
       <c r="AN16" s="1"/>
       <c r="AO16" s="1"/>
       <c r="AP16" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AQ16" s="5"/>
       <c r="AR16" s="5" t="s">
@@ -3796,18 +3791,18 @@
     </row>
     <row r="17" spans="1:51" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="1"/>
@@ -3829,11 +3824,11 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="W17" s="5"/>
       <c r="X17" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Y17" s="5"/>
       <c r="Z17" s="1"/>
@@ -3843,11 +3838,11 @@
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AG17" s="5"/>
       <c r="AH17" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AI17" s="5"/>
       <c r="AJ17" s="1"/>
@@ -3857,7 +3852,7 @@
       <c r="AN17" s="1"/>
       <c r="AO17" s="1"/>
       <c r="AP17" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AQ17" s="5"/>
       <c r="AR17" s="5" t="s">
@@ -3873,18 +3868,18 @@
     </row>
     <row r="18" spans="1:51" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="1"/>
@@ -3892,15 +3887,15 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M18" s="5"/>
       <c r="N18" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O18" s="5"/>
       <c r="P18" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="Q18" s="5"/>
       <c r="R18" s="1"/>
@@ -3908,15 +3903,15 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="W18" s="5"/>
       <c r="X18" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Y18" s="5"/>
       <c r="Z18" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AA18" s="5"/>
       <c r="AB18" s="1"/>
@@ -3924,11 +3919,11 @@
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AG18" s="5"/>
       <c r="AH18" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AI18" s="5"/>
       <c r="AJ18" s="1"/>
@@ -3938,7 +3933,7 @@
       <c r="AN18" s="1"/>
       <c r="AO18" s="1"/>
       <c r="AP18" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AQ18" s="5"/>
       <c r="AR18" s="1"/>
@@ -3952,18 +3947,18 @@
     </row>
     <row r="19" spans="1:51" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="1"/>
@@ -3971,15 +3966,15 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O19" s="5"/>
       <c r="P19" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="5"/>
       <c r="R19" s="1"/>
@@ -3989,11 +3984,11 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AA19" s="5"/>
       <c r="AB19" s="1"/>
@@ -4001,15 +3996,15 @@
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AG19" s="5"/>
       <c r="AH19" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AI19" s="5"/>
       <c r="AJ19" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AK19" s="5"/>
       <c r="AL19" s="1"/>
@@ -4017,7 +4012,7 @@
       <c r="AN19" s="1"/>
       <c r="AO19" s="1"/>
       <c r="AP19" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AQ19" s="5"/>
       <c r="AR19" s="1"/>
@@ -4031,18 +4026,18 @@
     </row>
     <row r="20" spans="1:51" ht="182" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="1"/>
@@ -4050,15 +4045,15 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O20" s="5"/>
       <c r="P20" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="5"/>
       <c r="R20" s="1"/>
@@ -4066,33 +4061,33 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="W20" s="5"/>
       <c r="X20" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AA20" s="5"/>
       <c r="AB20" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AC20" s="5"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
       <c r="AF20" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AG20" s="5"/>
       <c r="AH20" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AI20" s="5"/>
       <c r="AJ20" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AK20" s="5"/>
       <c r="AL20" s="1"/>
@@ -4100,11 +4095,11 @@
       <c r="AN20" s="1"/>
       <c r="AO20" s="1"/>
       <c r="AP20" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AQ20" s="5"/>
       <c r="AR20" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AS20" s="5"/>
       <c r="AT20" s="1"/>
@@ -4116,18 +4111,18 @@
     </row>
     <row r="21" spans="1:51" ht="182" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="1"/>
@@ -4135,15 +4130,15 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O21" s="5"/>
       <c r="P21" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q21" s="5"/>
       <c r="R21" s="1"/>
@@ -4151,33 +4146,33 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="W21" s="5"/>
       <c r="X21" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Y21" s="5"/>
       <c r="Z21" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AA21" s="5"/>
       <c r="AB21" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AC21" s="5"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
       <c r="AF21" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AG21" s="5"/>
       <c r="AH21" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AI21" s="5"/>
       <c r="AJ21" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AK21" s="5"/>
       <c r="AL21" s="1"/>
@@ -4185,11 +4180,11 @@
       <c r="AN21" s="1"/>
       <c r="AO21" s="1"/>
       <c r="AP21" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AQ21" s="5"/>
       <c r="AR21" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AS21" s="5"/>
       <c r="AT21" s="1"/>
@@ -4201,18 +4196,18 @@
     </row>
     <row r="22" spans="1:51" ht="182" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="1"/>
@@ -4220,15 +4215,13 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M22" s="5"/>
-      <c r="N22" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="O22" s="5"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
       <c r="P22" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Q22" s="5"/>
       <c r="R22" s="1"/>
@@ -4236,45 +4229,47 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W22" s="5"/>
       <c r="X22" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Y22" s="5"/>
       <c r="Z22" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AA22" s="5"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
       <c r="AD22" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AE22" s="5"/>
       <c r="AF22" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AG22" s="5"/>
       <c r="AH22" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AI22" s="5"/>
       <c r="AJ22" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AK22" s="5"/>
-      <c r="AL22" s="1"/>
-      <c r="AM22" s="1"/>
+      <c r="AL22" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM22" s="5"/>
       <c r="AN22" s="1"/>
       <c r="AO22" s="1"/>
       <c r="AP22" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AQ22" s="5"/>
       <c r="AR22" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AS22" s="5"/>
       <c r="AT22" s="1"/>
@@ -4286,36 +4281,36 @@
     </row>
     <row r="23" spans="1:51" ht="182" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O23" s="5"/>
       <c r="P23" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q23" s="5"/>
       <c r="R23" s="1"/>
@@ -4323,29 +4318,29 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="W23" s="5"/>
       <c r="X23" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Y23" s="5"/>
       <c r="Z23" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AA23" s="5"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
       <c r="AD23" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AE23" s="5"/>
       <c r="AF23" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AG23" s="5"/>
       <c r="AH23" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AI23" s="5"/>
       <c r="AJ23" s="1"/>
@@ -4355,11 +4350,11 @@
       <c r="AN23" s="1"/>
       <c r="AO23" s="1"/>
       <c r="AP23" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AQ23" s="5"/>
       <c r="AR23" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AS23" s="5"/>
       <c r="AT23" s="1"/>
@@ -4371,18 +4366,18 @@
     </row>
     <row r="24" spans="1:51" ht="182" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="1"/>
@@ -4390,15 +4385,15 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O24" s="5"/>
       <c r="P24" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q24" s="5"/>
       <c r="R24" s="1"/>
@@ -4406,15 +4401,15 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="W24" s="5"/>
       <c r="X24" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Y24" s="5"/>
       <c r="Z24" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA24" s="5"/>
       <c r="AB24" s="1"/>
@@ -4422,29 +4417,29 @@
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
       <c r="AF24" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AG24" s="5"/>
       <c r="AH24" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AI24" s="5"/>
       <c r="AJ24" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AK24" s="5"/>
       <c r="AL24" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AM24" s="5"/>
       <c r="AN24" s="1"/>
       <c r="AO24" s="1"/>
       <c r="AP24" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AQ24" s="5"/>
       <c r="AR24" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AS24" s="5"/>
       <c r="AT24" s="1"/>
@@ -4456,18 +4451,18 @@
     </row>
     <row r="25" spans="1:51" ht="182" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>158</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="1"/>
@@ -4475,15 +4470,15 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M25" s="5"/>
       <c r="N25" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O25" s="5"/>
       <c r="P25" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q25" s="5"/>
       <c r="R25" s="1"/>
@@ -4491,15 +4486,15 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="W25" s="5"/>
       <c r="X25" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Y25" s="5"/>
       <c r="Z25" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AA25" s="5"/>
       <c r="AB25" s="1"/>
@@ -4507,29 +4502,29 @@
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
       <c r="AF25" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AG25" s="5"/>
       <c r="AH25" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AI25" s="5"/>
       <c r="AJ25" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AK25" s="5"/>
       <c r="AL25" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AM25" s="5"/>
       <c r="AN25" s="1"/>
       <c r="AO25" s="1"/>
       <c r="AP25" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AQ25" s="5"/>
       <c r="AR25" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AS25" s="5"/>
       <c r="AT25" s="1"/>
@@ -4541,18 +4536,18 @@
     </row>
     <row r="26" spans="1:51" ht="182" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="1"/>
@@ -4560,15 +4555,15 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M26" s="5"/>
       <c r="N26" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O26" s="5"/>
       <c r="P26" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q26" s="5"/>
       <c r="R26" s="1"/>
@@ -4576,15 +4571,15 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="W26" s="5"/>
       <c r="X26" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Y26" s="5"/>
       <c r="Z26" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AA26" s="5"/>
       <c r="AB26" s="1"/>
@@ -4592,29 +4587,29 @@
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AG26" s="5"/>
       <c r="AH26" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AI26" s="5"/>
       <c r="AJ26" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AK26" s="5"/>
       <c r="AL26" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AM26" s="5"/>
       <c r="AN26" s="1"/>
       <c r="AO26" s="1"/>
       <c r="AP26" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AQ26" s="5"/>
       <c r="AR26" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AS26" s="5"/>
       <c r="AT26" s="1"/>
@@ -4626,34 +4621,34 @@
     </row>
     <row r="27" spans="1:51" ht="169" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O27" s="5"/>
       <c r="P27" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q27" s="5"/>
       <c r="R27" s="1"/>
@@ -4661,15 +4656,15 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="W27" s="5"/>
       <c r="X27" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Y27" s="5"/>
       <c r="Z27" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AA27" s="5"/>
       <c r="AB27" s="1"/>
@@ -4677,11 +4672,11 @@
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AG27" s="5"/>
       <c r="AH27" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AI27" s="5"/>
       <c r="AJ27" s="1"/>
@@ -4691,11 +4686,11 @@
       <c r="AN27" s="1"/>
       <c r="AO27" s="1"/>
       <c r="AP27" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ27" s="5"/>
       <c r="AR27" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AS27" s="5"/>
       <c r="AT27" s="1"/>
@@ -4707,50 +4702,50 @@
     </row>
     <row r="28" spans="1:51" ht="182" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="E28" s="5"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5" t="s">
-        <v>187</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M28" s="5"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q28" s="5"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
+      <c r="R28" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="S28" s="5"/>
       <c r="T28" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="U28" s="5"/>
       <c r="V28" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="W28" s="5"/>
       <c r="X28" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Y28" s="5"/>
       <c r="Z28" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AA28" s="5"/>
       <c r="AB28" s="1"/>
@@ -4760,25 +4755,25 @@
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
       <c r="AH28" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AI28" s="5"/>
       <c r="AJ28" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AK28" s="5"/>
       <c r="AL28" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AM28" s="5"/>
       <c r="AN28" s="1"/>
       <c r="AO28" s="1"/>
       <c r="AP28" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AQ28" s="5"/>
       <c r="AR28" s="5" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="AS28" s="5"/>
       <c r="AT28" s="1"/>
@@ -4790,32 +4785,32 @@
     </row>
     <row r="29" spans="1:51" ht="182" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M29" s="5"/>
       <c r="N29" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O29" s="5"/>
       <c r="P29" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q29" s="5"/>
       <c r="R29" s="1"/>
@@ -4823,15 +4818,15 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="W29" s="5"/>
       <c r="X29" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Y29" s="5"/>
       <c r="Z29" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AA29" s="5"/>
       <c r="AB29" s="1"/>
@@ -4839,29 +4834,29 @@
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
       <c r="AF29" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AG29" s="5"/>
       <c r="AH29" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AI29" s="5"/>
       <c r="AJ29" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AK29" s="5"/>
       <c r="AL29" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AM29" s="5"/>
       <c r="AN29" s="1"/>
       <c r="AO29" s="1"/>
       <c r="AP29" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AQ29" s="5"/>
       <c r="AR29" s="5" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="AS29" s="5"/>
       <c r="AT29" s="1"/>
@@ -4873,50 +4868,50 @@
     </row>
     <row r="30" spans="1:51" ht="182" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M30" s="5"/>
       <c r="N30" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O30" s="5"/>
       <c r="P30" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q30" s="5"/>
       <c r="R30" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="S30" s="5"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W30" s="5"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AA30" s="5"/>
       <c r="AB30" s="1"/>
@@ -4924,15 +4919,15 @@
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
       <c r="AF30" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AG30" s="5"/>
       <c r="AH30" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AI30" s="5"/>
       <c r="AJ30" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AK30" s="5"/>
       <c r="AL30" s="1"/>
@@ -4940,11 +4935,11 @@
       <c r="AN30" s="1"/>
       <c r="AO30" s="1"/>
       <c r="AP30" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AQ30" s="5"/>
       <c r="AR30" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AS30" s="5"/>
       <c r="AT30" s="1"/>
@@ -4956,14 +4951,14 @@
     </row>
     <row r="31" spans="1:51" ht="182" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>211</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>212</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="1"/>
@@ -4973,15 +4968,15 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M31" s="5"/>
       <c r="N31" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O31" s="5"/>
       <c r="P31" s="5" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="Q31" s="5"/>
       <c r="R31" s="1"/>
@@ -4991,11 +4986,11 @@
       </c>
       <c r="U31" s="5"/>
       <c r="V31" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="W31" s="5"/>
       <c r="X31" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Y31" s="5"/>
       <c r="Z31" s="5" t="s">
@@ -5003,7 +4998,7 @@
       </c>
       <c r="AA31" s="5"/>
       <c r="AB31" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AC31" s="5"/>
       <c r="AD31" s="1"/>
@@ -5046,7 +5041,7 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5" t="s">
@@ -5074,11 +5069,11 @@
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W32" s="5"/>
       <c r="X32" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Y32" s="5"/>
       <c r="Z32" s="5" t="s">
@@ -5092,11 +5087,11 @@
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
       <c r="AF32" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AG32" s="5"/>
       <c r="AH32" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI32" s="5"/>
       <c r="AJ32" s="5" t="s">
@@ -5127,15 +5122,13 @@
         <v>230</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C33" s="5"/>
-      <c r="D33" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="E33" s="5"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
       <c r="F33" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="1"/>
@@ -5148,8 +5141,10 @@
       <c r="M33" s="5"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
+      <c r="P33" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q33" s="5"/>
       <c r="R33" s="5" t="s">
         <v>226</v>
       </c>
@@ -5157,7 +5152,7 @@
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W33" s="5"/>
       <c r="X33" s="5" t="s">
@@ -5179,7 +5174,7 @@
       </c>
       <c r="AG33" s="5"/>
       <c r="AH33" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI33" s="5"/>
       <c r="AJ33" s="5" t="s">
@@ -5210,13 +5205,13 @@
         <v>236</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="5" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="1"/>
@@ -5224,15 +5219,15 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M34" s="5"/>
       <c r="N34" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O34" s="5"/>
       <c r="P34" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q34" s="5"/>
       <c r="R34" s="5" t="s">
@@ -5244,15 +5239,15 @@
       </c>
       <c r="U34" s="5"/>
       <c r="V34" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W34" s="5"/>
       <c r="X34" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Y34" s="5"/>
       <c r="Z34" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AA34" s="5"/>
       <c r="AB34" s="1"/>
@@ -5260,15 +5255,15 @@
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
       <c r="AF34" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG34" s="5"/>
       <c r="AH34" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI34" s="5"/>
       <c r="AJ34" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AK34" s="5"/>
       <c r="AL34" s="1"/>
@@ -5276,7 +5271,7 @@
       <c r="AN34" s="1"/>
       <c r="AO34" s="1"/>
       <c r="AP34" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AQ34" s="5"/>
       <c r="AR34" s="1"/>
@@ -5290,18 +5285,18 @@
     </row>
     <row r="35" spans="1:51" ht="182" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="1"/>
@@ -5309,37 +5304,37 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M35" s="5"/>
       <c r="N35" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O35" s="5"/>
       <c r="P35" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q35" s="5"/>
       <c r="R35" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="S35" s="5"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="W35" s="5"/>
       <c r="X35" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Y35" s="5"/>
       <c r="Z35" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AA35" s="5"/>
       <c r="AB35" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AC35" s="5"/>
       <c r="AD35" s="1"/>
@@ -5349,11 +5344,11 @@
       </c>
       <c r="AG35" s="5"/>
       <c r="AH35" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AI35" s="5"/>
       <c r="AJ35" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AK35" s="5"/>
       <c r="AL35" s="1"/>
@@ -5361,11 +5356,11 @@
       <c r="AN35" s="1"/>
       <c r="AO35" s="1"/>
       <c r="AP35" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AQ35" s="5"/>
       <c r="AR35" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AS35" s="5"/>
       <c r="AT35" s="1"/>
@@ -5377,18 +5372,18 @@
     </row>
     <row r="36" spans="1:51" ht="182" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5" t="s">
@@ -5398,15 +5393,15 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M36" s="5"/>
       <c r="N36" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O36" s="5"/>
       <c r="P36" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q36" s="5"/>
       <c r="R36" s="1"/>
@@ -5414,15 +5409,15 @@
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="W36" s="5"/>
       <c r="X36" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y36" s="5"/>
       <c r="Z36" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AA36" s="5"/>
       <c r="AB36" s="1"/>
@@ -5430,7 +5425,7 @@
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
       <c r="AF36" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG36" s="5"/>
       <c r="AH36" s="5" t="s">
@@ -5438,7 +5433,7 @@
       </c>
       <c r="AI36" s="5"/>
       <c r="AJ36" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AK36" s="5"/>
       <c r="AL36" s="1"/>
@@ -5446,7 +5441,7 @@
       <c r="AN36" s="1"/>
       <c r="AO36" s="1"/>
       <c r="AP36" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AQ36" s="5"/>
       <c r="AR36" s="1"/>
@@ -5460,10 +5455,10 @@
     </row>
     <row r="37" spans="1:51" ht="182" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5" t="s">
@@ -5471,7 +5466,7 @@
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="1"/>
@@ -5479,43 +5474,43 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M37" s="5"/>
       <c r="N37" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O37" s="5"/>
       <c r="P37" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q37" s="5"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="U37" s="5"/>
       <c r="V37" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="W37" s="5"/>
       <c r="X37" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Y37" s="5"/>
       <c r="Z37" s="5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AA37" s="5"/>
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
       <c r="AD37" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AE37" s="5"/>
       <c r="AF37" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AG37" s="5"/>
       <c r="AH37" s="1"/>
@@ -5527,11 +5522,11 @@
       <c r="AN37" s="1"/>
       <c r="AO37" s="1"/>
       <c r="AP37" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AQ37" s="5"/>
       <c r="AR37" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AS37" s="5"/>
       <c r="AT37" s="1"/>
@@ -5543,16 +5538,16 @@
     </row>
     <row r="38" spans="1:51" ht="182" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="1"/>
@@ -5560,49 +5555,49 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M38" s="5"/>
       <c r="N38" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O38" s="5"/>
       <c r="P38" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q38" s="5"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="T38" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="U38" s="5"/>
       <c r="V38" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W38" s="5"/>
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AA38" s="5"/>
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
       <c r="AD38" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AE38" s="5"/>
       <c r="AF38" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG38" s="5"/>
       <c r="AH38" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AI38" s="5"/>
       <c r="AJ38" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AK38" s="5"/>
       <c r="AL38" s="1"/>
@@ -5610,11 +5605,11 @@
       <c r="AN38" s="1"/>
       <c r="AO38" s="1"/>
       <c r="AP38" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AQ38" s="5"/>
       <c r="AR38" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AS38" s="5"/>
       <c r="AT38" s="1"/>
@@ -5626,16 +5621,16 @@
     </row>
     <row r="39" spans="1:51" ht="182" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="B39" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E39" s="5"/>
       <c r="F39" s="5" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5" t="s">
@@ -5645,15 +5640,15 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M39" s="5"/>
       <c r="N39" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O39" s="5"/>
       <c r="P39" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q39" s="5"/>
       <c r="R39" s="1"/>
@@ -5661,15 +5656,15 @@
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="W39" s="5"/>
       <c r="X39" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Y39" s="5"/>
       <c r="Z39" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AA39" s="5"/>
       <c r="AB39" s="1"/>
@@ -5677,7 +5672,7 @@
       <c r="AD39" s="1"/>
       <c r="AE39" s="1"/>
       <c r="AF39" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG39" s="5"/>
       <c r="AH39" s="5" t="s">
@@ -5685,7 +5680,7 @@
       </c>
       <c r="AI39" s="5"/>
       <c r="AJ39" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AK39" s="5"/>
       <c r="AL39" s="1"/>
@@ -5693,11 +5688,11 @@
       <c r="AN39" s="1"/>
       <c r="AO39" s="1"/>
       <c r="AP39" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AQ39" s="5"/>
       <c r="AR39" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AS39" s="5"/>
       <c r="AT39" s="1"/>
@@ -5709,46 +5704,44 @@
     </row>
     <row r="40" spans="1:51" ht="182" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K40" s="5"/>
       <c r="L40" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M40" s="5"/>
       <c r="N40" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O40" s="5"/>
       <c r="P40" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q40" s="5"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
-      <c r="V40" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="W40" s="5"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
       <c r="X40" s="5" t="s">
         <v>302</v>
       </c>
@@ -5757,8 +5750,10 @@
         <v>303</v>
       </c>
       <c r="AA40" s="5"/>
-      <c r="AB40" s="1"/>
-      <c r="AC40" s="1"/>
+      <c r="AB40" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="AC40" s="5"/>
       <c r="AD40" s="1"/>
       <c r="AE40" s="1"/>
       <c r="AF40" s="5" t="s">
@@ -5780,7 +5775,7 @@
       <c r="AP40" s="1"/>
       <c r="AQ40" s="1"/>
       <c r="AR40" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AS40" s="5"/>
       <c r="AT40" s="1"/>
@@ -5803,17 +5798,17 @@
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M41" s="5"/>
       <c r="N41" s="5" t="s">
@@ -5821,7 +5816,7 @@
       </c>
       <c r="O41" s="5"/>
       <c r="P41" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q41" s="5"/>
       <c r="R41" s="1"/>
@@ -5833,7 +5828,7 @@
       </c>
       <c r="W41" s="5"/>
       <c r="X41" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Y41" s="5"/>
       <c r="Z41" s="5" t="s">
@@ -5854,18 +5849,18 @@
         <v>218</v>
       </c>
       <c r="AK41" s="5"/>
-      <c r="AL41" s="1"/>
-      <c r="AM41" s="1"/>
+      <c r="AL41" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="AM41" s="5"/>
       <c r="AN41" s="1"/>
       <c r="AO41" s="1"/>
       <c r="AP41" s="5" t="s">
         <v>310</v>
       </c>
       <c r="AQ41" s="5"/>
-      <c r="AR41" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="AS41" s="5"/>
+      <c r="AR41" s="1"/>
+      <c r="AS41" s="1"/>
       <c r="AT41" s="1"/>
       <c r="AU41" s="1"/>
       <c r="AV41" s="1"/>
@@ -5875,34 +5870,34 @@
     </row>
     <row r="42" spans="1:51" ht="169" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I42" s="5"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M42" s="5"/>
       <c r="N42" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O42" s="5"/>
       <c r="P42" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q42" s="5"/>
       <c r="R42" s="1"/>
@@ -5910,15 +5905,15 @@
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="W42" s="5"/>
       <c r="X42" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Y42" s="5"/>
       <c r="Z42" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AA42" s="5"/>
       <c r="AB42" s="1"/>
@@ -5926,11 +5921,11 @@
       <c r="AD42" s="1"/>
       <c r="AE42" s="1"/>
       <c r="AF42" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AG42" s="5"/>
       <c r="AH42" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AI42" s="5"/>
       <c r="AJ42" s="1"/>
@@ -5940,11 +5935,11 @@
       <c r="AN42" s="1"/>
       <c r="AO42" s="1"/>
       <c r="AP42" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ42" s="5"/>
       <c r="AR42" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AS42" s="5"/>
       <c r="AT42" s="1"/>
@@ -5961,8 +5956,8 @@
     <mergeCell ref="AH42:AI42"/>
     <mergeCell ref="AP42:AQ42"/>
     <mergeCell ref="AR42:AS42"/>
+    <mergeCell ref="AL41:AM41"/>
     <mergeCell ref="AP41:AQ41"/>
-    <mergeCell ref="AR41:AS41"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="F42:G42"/>
     <mergeCell ref="H42:I42"/>
@@ -5983,8 +5978,8 @@
     <mergeCell ref="J41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="X40:Y40"/>
     <mergeCell ref="Z40:AA40"/>
+    <mergeCell ref="AB40:AC40"/>
     <mergeCell ref="AF40:AG40"/>
     <mergeCell ref="AH40:AI40"/>
     <mergeCell ref="AJ40:AK40"/>
@@ -5998,14 +5993,14 @@
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
     <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="X40:Y40"/>
     <mergeCell ref="V39:W39"/>
     <mergeCell ref="X39:Y39"/>
     <mergeCell ref="Z39:AA39"/>
     <mergeCell ref="AF39:AG39"/>
     <mergeCell ref="AH39:AI39"/>
     <mergeCell ref="AJ39:AK39"/>
-    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="H39:I39"/>
     <mergeCell ref="L39:M39"/>
@@ -6092,9 +6087,9 @@
     <mergeCell ref="AP32:AQ32"/>
     <mergeCell ref="AR32:AS32"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="L33:M33"/>
+    <mergeCell ref="P33:Q33"/>
     <mergeCell ref="R33:S33"/>
     <mergeCell ref="V33:W33"/>
     <mergeCell ref="X33:Y33"/>
@@ -6160,11 +6155,11 @@
     <mergeCell ref="N29:O29"/>
     <mergeCell ref="P29:Q29"/>
     <mergeCell ref="AR27:AS27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="H28:I28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="R28:S28"/>
     <mergeCell ref="T28:U28"/>
     <mergeCell ref="V28:W28"/>
     <mergeCell ref="X28:Y28"/>
@@ -6241,10 +6236,10 @@
     <mergeCell ref="H23:I23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="AD22:AE22"/>
     <mergeCell ref="AF22:AG22"/>
     <mergeCell ref="AH22:AI22"/>
     <mergeCell ref="AJ22:AK22"/>
+    <mergeCell ref="AL22:AM22"/>
     <mergeCell ref="AP22:AQ22"/>
     <mergeCell ref="AR22:AS22"/>
     <mergeCell ref="AR21:AS21"/>
@@ -6252,11 +6247,11 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
     <mergeCell ref="P22:Q22"/>
     <mergeCell ref="V22:W22"/>
     <mergeCell ref="X22:Y22"/>
     <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="AD22:AE22"/>
     <mergeCell ref="Z21:AA21"/>
     <mergeCell ref="AB21:AC21"/>
     <mergeCell ref="AF21:AG21"/>
@@ -6389,7 +6384,7 @@
     <mergeCell ref="V11:W11"/>
     <mergeCell ref="X11:Y11"/>
     <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="N10:O10"/>
     <mergeCell ref="X10:Y10"/>
     <mergeCell ref="Z10:AA10"/>
     <mergeCell ref="AF10:AG10"/>
@@ -6403,8 +6398,8 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
     <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="L9:M9"/>
